--- a/biology/Zoologie/Dasypodidae/Dasypodidae.xlsx
+++ b/biology/Zoologie/Dasypodidae/Dasypodidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Dasypodidae, avec celle des Chlamyphoridae, est l'une des deux familles actuelles que contient l'ordre des Cingulata. La famille des Glyptodontidae ne contient que des taxons éteints. Cette famille comporte une sous-famille, un genre et sept espèces.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-familles et des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Gibb et al. (2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Gibb et al. (2016) :
 sous-famille Dasypodinae(Gray, 1821).
 genre Dasypus (Linnaeus, 1758).</t>
         </is>
